--- a/data_base/excel_queries.xlsx
+++ b/data_base/excel_queries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos\ASME_rifas\data_base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8745DA9D-9518-4A7A-9B5B-F1231AE464AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1DA874-BF55-45F6-9A1E-8A7D9EEACE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="3" xr2:uid="{AEEE7ADD-CFB1-4F8B-8AAE-F571EC7AFCC1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{AEEE7ADD-CFB1-4F8B-8AAE-F571EC7AFCC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Grupos" sheetId="1" r:id="rId1"/>
@@ -1285,7 +1285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1359,10 +1359,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2040,11 +2039,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB5630B-C7CC-4DEA-B963-ECE069069588}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView tabSelected="1" topLeftCell="C34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2100,10 +2098,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="e">
-        <f>A1+1</f>
-        <v>#VALUE!</v>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
       </c>
       <c r="B2" s="26">
         <v>71479085</v>
@@ -2127,19 +2124,15 @@
       <c r="I2" s="17">
         <v>1</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28" t="e">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A2,",","'",B2,"',","'",C2,"','",D2,"','",F2,"',",G2,",",H2,",",I2,");")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="e">
+      <c r="N2" t="str">
+        <f t="shared" ref="N2:N33" si="0">_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A2,",","'",B2,"',","'",C2,"','",D2,"','",F2,"',",G2,",",H2,",",I2,");")</f>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (1,'71479085','Aaron','Castro','01',1,3,1);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
         <f>A2+1</f>
-        <v>#VALUE!</v>
+        <v>2</v>
       </c>
       <c r="B3" s="26">
         <v>72558129</v>
@@ -2163,19 +2156,15 @@
       <c r="I3" s="3">
         <v>2</v>
       </c>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28" t="e">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A3,",","'",B3,"',","'",C3,"','",D3,"','",F3,"',",G3,",",H3,",",I3,");")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="e">
+      <c r="N3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (2,'72558129','Valentina','Córdoba','02',1,3,2);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
         <f>A3+1</f>
-        <v>#VALUE!</v>
+        <v>3</v>
       </c>
       <c r="B4" s="26">
         <v>75448222</v>
@@ -2199,19 +2188,15 @@
       <c r="I4" s="3">
         <v>2</v>
       </c>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28" t="e">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A4,",","'",B4,"',","'",C4,"','",D4,"','",F4,"',",G4,",",H4,",",I4,");")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="e">
-        <f>A4+1</f>
-        <v>#VALUE!</v>
+      <c r="N4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (3,'75448222','Jose Anthony','Chamba','03',1,3,2);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <f t="shared" ref="A5:A68" si="1">A4+1</f>
+        <v>4</v>
       </c>
       <c r="B5" s="26">
         <v>70398195</v>
@@ -2235,19 +2220,19 @@
       <c r="I5" s="17">
         <v>2</v>
       </c>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28" t="e">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A5,",","'",B5,"',","'",C5,"','",D5,"','",F5,"',",G5,",",H5,",",I5,");")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="e">
-        <f>A5+1</f>
-        <v>#VALUE!</v>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (4,'70398195','Sofia','Bobadilla','04',1,1,2);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="B6" s="26">
         <v>72684422</v>
@@ -2271,18 +2256,19 @@
       <c r="I6" s="3">
         <v>4</v>
       </c>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28" t="e">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A6,",","'",B6,"',","'",C6,"','",D6,"','",F6,"',",G6,",",H6,",",I6,");")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (5,'72684422','Hector ','Rodriguez','05',1,2,4);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="B7" s="26">
         <v>71635545</v>
@@ -2306,19 +2292,19 @@
       <c r="I7" s="3">
         <v>2</v>
       </c>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A7,",","'",B7,"',","'",C7,"','",D7,"','",F7,"',",G7,",",H7,",",I7,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (2,'71635545','Selene ','Cruz','06',1,1,2);</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (6,'71635545','Selene ','Cruz','06',1,1,2);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
-        <f>A7+1</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="B8" s="26">
         <v>72933217</v>
@@ -2342,22 +2328,18 @@
       <c r="I8" s="3">
         <v>2</v>
       </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A8,",","'",B8,"',","'",C8,"','",D8,"','",F8,"',",G8,",",H8,",",I8,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (3,'72933217','Gerson','Zatta','07',1,3,2);</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (7,'72933217','Gerson','Zatta','07',1,3,2);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
-        <f>A8+1</f>
-        <v>4</v>
-      </c>
-      <c r="B9" s="25">
-        <v>12345678</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="26">
+        <v>70868498</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>61</v>
@@ -2378,19 +2360,15 @@
       <c r="I9" s="3">
         <v>2</v>
       </c>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A9,",","'",B9,"',","'",C9,"','",D9,"','",F9,"',",G9,",",H9,",",I9,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (4,'12345678','Manuel ','Ortega','08',1,1,2);</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (8,'70868498','Manuel ','Ortega','08',1,1,2);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
-        <f>A9+1</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="B10" s="26">
         <v>60763824</v>
@@ -2414,18 +2392,15 @@
       <c r="I10" s="3">
         <v>1</v>
       </c>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A10,",","'",B10,"',","'",C10,"','",D10,"','",F10,"',",G10,",",H10,",",I10,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (5,'60763824','Piero','Pardo Aranda','09',1,2,1);</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (9,'60763824','Piero','Pardo Aranda','09',1,2,1);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="B11" s="26">
         <v>73109842</v>
@@ -2449,19 +2424,15 @@
       <c r="I11" s="3">
         <v>2</v>
       </c>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A11,",","'",B11,"',","'",C11,"','",D11,"','",F11,"',",G11,",",H11,",",I11,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (1,'73109842','Aurora','Saldarriaga','10',1,3,2);</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (10,'73109842','Aurora','Saldarriaga','10',1,3,2);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
-        <f>A11+1</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="B12" s="26">
         <v>71729405</v>
@@ -2485,19 +2456,15 @@
       <c r="I12" s="17">
         <v>2</v>
       </c>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A12,",","'",B12,"',","'",C12,"','",D12,"','",F12,"',",G12,",",H12,",",I12,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (2,'71729405','Richard','Castañeda','11',1,3,2);</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (11,'71729405','Richard','Castañeda','11',1,3,2);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
-        <f>A12+1</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="B13" s="26">
         <v>60742408</v>
@@ -2521,19 +2488,15 @@
       <c r="I13" s="3">
         <v>7</v>
       </c>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A13,",","'",B13,"',","'",C13,"','",D13,"','",F13,"',",G13,",",H13,",",I13,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (3,'60742408','Diego','Pérez Alcántara','12',1,2,7);</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (12,'60742408','Diego','Pérez Alcántara','12',1,2,7);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
-        <f>A13+1</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
       <c r="B14" s="26">
         <v>74205530</v>
@@ -2557,19 +2520,15 @@
       <c r="I14" s="3">
         <v>2</v>
       </c>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A14,",","'",B14,"',","'",C14,"','",D14,"','",F14,"',",G14,",",H14,",",I14,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (4,'74205530','Jose María','Saavedra','13',2,3,2);</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (13,'74205530','Jose María','Saavedra','13',2,3,2);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
-        <f>A14+1</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="B15" s="26">
         <v>75328058</v>
@@ -2593,19 +2552,15 @@
       <c r="I15" s="3">
         <v>2</v>
       </c>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A15,",","'",B15,"',","'",C15,"','",D15,"','",F15,"',",G15,",",H15,",",I15,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (5,'75328058','Karla','Seminario','14',2,1,2);</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (14,'75328058','Karla','Seminario','14',2,1,2);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
-        <f>A15+1</f>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="B16" s="26">
         <v>73876987</v>
@@ -2629,19 +2584,15 @@
       <c r="I16" s="3">
         <v>2</v>
       </c>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A16,",","'",B16,"',","'",C16,"','",D16,"','",F16,"',",G16,",",H16,",",I16,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (6,'73876987','Ian','Lozano','15',2,3,2);</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (15,'73876987','Ian','Lozano','15',2,3,2);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
-        <f>A16+1</f>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="B17" s="26">
         <v>70844455</v>
@@ -2665,22 +2616,18 @@
       <c r="I17" s="3">
         <v>7</v>
       </c>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A17,",","'",B17,"',","'",C17,"','",D17,"','",F17,"',",G17,",",H17,",",I17,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (7,'70844455','Angie ','Pacheco','16',2,2,7);</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N17" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (16,'70844455','Angie ','Pacheco','16',2,2,7);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
-        <f>A17+1</f>
-        <v>8</v>
-      </c>
-      <c r="B18" s="25">
-        <v>12345678</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="26">
+        <v>73148457</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>84</v>
@@ -2701,19 +2648,15 @@
       <c r="I18" s="3">
         <v>2</v>
       </c>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A18,",","'",B18,"',","'",C18,"','",D18,"','",F18,"',",G18,",",H18,",",I18,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (8,'12345678','Joaquin','Castillo','17',2,3,2);</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N18" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (17,'73148457','Joaquin','Castillo','17',2,3,2);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
-        <f>A18+1</f>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="B19" s="26">
         <v>73907327</v>
@@ -2737,22 +2680,18 @@
       <c r="I19" s="3">
         <v>2</v>
       </c>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A19,",","'",B19,"',","'",C19,"','",D19,"','",F19,"',",G19,",",H19,",",I19,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (9,'73907327','Melisa ','Gavino','18',2,2,2);</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N19" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (18,'73907327','Melisa ','Gavino','18',2,2,2);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
-        <f>A19+1</f>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>19</v>
       </c>
       <c r="B20" s="25">
-        <v>12345678</v>
+        <v>73443371</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>69</v>
@@ -2773,19 +2712,15 @@
       <c r="I20" s="3">
         <v>2</v>
       </c>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A20,",","'",B20,"',","'",C20,"','",D20,"','",F20,"',",G20,",",H20,",",I20,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (10,'12345678','Sergio','Rosales','19',2,3,2);</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N20" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (19,'73443371','Sergio','Rosales','19',2,3,2);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
-        <f>A20+1</f>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="B21" s="26">
         <v>75765865</v>
@@ -2809,19 +2744,15 @@
       <c r="I21" s="3">
         <v>2</v>
       </c>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A21,",","'",B21,"',","'",C21,"','",D21,"','",F21,"',",G21,",",H21,",",I21,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (11,'75765865','Aaron','Silva','20',2,3,2);</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (20,'75765865','Aaron','Silva','20',2,3,2);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
-        <f>A21+1</f>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
       <c r="B22" s="26">
         <v>75482607</v>
@@ -2845,19 +2776,19 @@
       <c r="I22" s="3">
         <v>1</v>
       </c>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A22,",","'",B22,"',","'",C22,"','",D22,"','",F22,"',",G22,",",H22,",",I22,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (12,'75482607','Aracely','Lalupu','21',2,3,1);</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (21,'75482607','Aracely','Lalupu','21',2,3,1);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
-        <f>A22+1</f>
-        <v>13</v>
+        <f t="shared" si="1"/>
+        <v>22</v>
       </c>
       <c r="B23" s="25">
         <v>12345678</v>
@@ -2881,19 +2812,15 @@
       <c r="I23" s="3">
         <v>2</v>
       </c>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A23,",","'",B23,"',","'",C23,"','",D23,"','",F23,"',",G23,",",H23,",",I23,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (13,'12345678','Gabriel','Tadeo','22',2,1,2);</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (22,'12345678','Gabriel','Tadeo','22',2,1,2);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
-        <f>A23+1</f>
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>23</v>
       </c>
       <c r="B24" s="26">
         <v>70766809</v>
@@ -2917,19 +2844,15 @@
       <c r="I24" s="3">
         <v>4</v>
       </c>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A24,",","'",B24,"',","'",C24,"','",D24,"','",F24,"',",G24,",",H24,",",I24,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (14,'70766809','Mariana','Silva','23',2,3,4);</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N24" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (23,'70766809','Mariana','Silva','23',2,3,4);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
-        <f>A24+1</f>
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>24</v>
       </c>
       <c r="B25" s="26">
         <v>71531463</v>
@@ -2953,19 +2876,15 @@
       <c r="I25" s="17">
         <v>6</v>
       </c>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A25,",","'",B25,"',","'",C25,"','",D25,"','",F25,"',",G25,",",H25,",",I25,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (15,'71531463','Adrian ','Bobadilla','24',2,3,6);</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N25" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (24,'71531463','Adrian ','Bobadilla','24',2,3,6);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
-        <f>A25+1</f>
-        <v>16</v>
+        <f t="shared" si="1"/>
+        <v>25</v>
       </c>
       <c r="B26" s="26">
         <v>73137065</v>
@@ -2989,19 +2908,15 @@
       <c r="I26" s="3">
         <v>3</v>
       </c>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A26,",","'",B26,"',","'",C26,"','",D26,"','",F26,"',",G26,",",H26,",",I26,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (16,'73137065','Sebastián','Cruzado','25',3,3,3);</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N26" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (25,'73137065','Sebastián','Cruzado','25',3,3,3);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
-        <f>A26+1</f>
-        <v>17</v>
+        <f t="shared" si="1"/>
+        <v>26</v>
       </c>
       <c r="B27" s="25">
         <v>12345678</v>
@@ -3025,19 +2940,15 @@
       <c r="I27" s="3">
         <v>2</v>
       </c>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A27,",","'",B27,"',","'",C27,"','",D27,"','",F27,"',",G27,",",H27,",",I27,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (17,'12345678','Angie','Sanchez','26',3,3,2);</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N27" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (26,'12345678','Angie','Sanchez','26',3,3,2);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
-        <f>A27+1</f>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>27</v>
       </c>
       <c r="B28" s="26">
         <v>72778083</v>
@@ -3061,19 +2972,15 @@
       <c r="I28" s="3">
         <v>2</v>
       </c>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A28,",","'",B28,"',","'",C28,"','",D28,"','",F28,"',",G28,",",H28,",",I28,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (18,'72778083','Álvaro','Ipanaqué','27',3,2,2);</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N28" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (27,'72778083','Álvaro','Ipanaqué','27',3,2,2);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
-        <f>A28+1</f>
-        <v>19</v>
+        <f t="shared" si="1"/>
+        <v>28</v>
       </c>
       <c r="B29" s="26">
         <v>76543879</v>
@@ -3097,19 +3004,15 @@
       <c r="I29" s="17">
         <v>4</v>
       </c>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A29,",","'",B29,"',","'",C29,"','",D29,"','",F29,"',",G29,",",H29,",",I29,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (19,'76543879','Adrián','Bermeo','28',3,2,4);</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N29" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (28,'76543879','Adrián','Bermeo','28',3,2,4);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
-        <f>A29+1</f>
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>29</v>
       </c>
       <c r="B30" s="27">
         <v>73885578</v>
@@ -3133,19 +3036,19 @@
       <c r="I30" s="3">
         <v>1</v>
       </c>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A30,",","'",B30,"',","'",C30,"','",D30,"','",F30,"',",G30,",",H30,",",I30,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (20,'73885578','Lucas','Requena','29',3,2,1);</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (29,'73885578','Lucas','Requena','29',3,2,1);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
-        <f>A30+1</f>
-        <v>21</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
       <c r="B31" s="26">
         <v>70984324</v>
@@ -3169,19 +3072,15 @@
       <c r="I31" s="17">
         <v>2</v>
       </c>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A31,",","'",B31,"',","'",C31,"','",D31,"','",F31,"',",G31,",",H31,",",I31,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (21,'70984324','Héctor','Castro','30',3,1,2);</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N31" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (30,'70984324','Héctor','Castro','30',3,1,2);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
-        <f>A31+1</f>
-        <v>22</v>
+        <f t="shared" si="1"/>
+        <v>31</v>
       </c>
       <c r="B32" s="26">
         <v>77471081</v>
@@ -3205,19 +3104,19 @@
       <c r="I32" s="3">
         <v>7</v>
       </c>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A32,",","'",B32,"',","'",C32,"','",D32,"','",F32,"',",G32,",",H32,",",I32,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (22,'77471081','Luciana ','Oliva','31',3,2,7);</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (31,'77471081','Luciana ','Oliva','31',3,2,7);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
-        <f>A32+1</f>
-        <v>23</v>
+        <f t="shared" si="1"/>
+        <v>32</v>
       </c>
       <c r="B33" s="26">
         <v>72328201</v>
@@ -3241,22 +3140,18 @@
       <c r="I33" s="3">
         <v>4</v>
       </c>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A33,",","'",B33,"',","'",C33,"','",D33,"','",F33,"',",G33,",",H33,",",I33,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (23,'72328201','Jose Manuel','Maticorena','32',3,3,4);</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N33" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (32,'72328201','Jose Manuel','Maticorena','32',3,3,4);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
-        <f>A33+1</f>
-        <v>24</v>
-      </c>
-      <c r="B34" s="25">
-        <v>12345678</v>
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="26">
+        <v>73173764</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>102</v>
@@ -3277,19 +3172,15 @@
       <c r="I34" s="3">
         <v>6</v>
       </c>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A34,",","'",B34,"',","'",C34,"','",D34,"','",F34,"',",G34,",",H34,",",I34,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (24,'12345678','Carlos','López','33',3,3,6);</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N34" t="str">
+        <f t="shared" ref="N34:N65" si="2">_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A34,",","'",B34,"',","'",C34,"','",D34,"','",F34,"',",G34,",",H34,",",I34,");")</f>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (33,'73173764','Carlos','López','33',3,3,6);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
-        <f>A34+1</f>
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>34</v>
       </c>
       <c r="B35" s="26">
         <v>60743537</v>
@@ -3313,19 +3204,15 @@
       <c r="I35" s="17">
         <v>2</v>
       </c>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A35,",","'",B35,"',","'",C35,"','",D35,"','",F35,"',",G35,",",H35,",",I35,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (25,'60743537','Rebeca ','Anto','34',3,3,2);</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N35" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (34,'60743537','Rebeca ','Anto','34',3,3,2);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <f>A35+1</f>
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B36" s="27">
         <v>70470729</v>
@@ -3349,19 +3236,19 @@
       <c r="I36" s="3">
         <v>2</v>
       </c>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A36,",","'",B36,"',","'",C36,"','",D36,"','",F36,"',",G36,",",H36,",",I36,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (26,'70470729','Gabriel','Chapilliquén','35',3,3,2);</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (35,'70470729','Gabriel','Chapilliquén','35',3,3,2);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
-        <f>A36+1</f>
-        <v>27</v>
+        <f t="shared" si="1"/>
+        <v>36</v>
       </c>
       <c r="B37" s="26">
         <v>76609081</v>
@@ -3385,19 +3272,15 @@
       <c r="I37" s="3">
         <v>5</v>
       </c>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A37,",","'",B37,"',","'",C37,"','",D37,"','",F37,"',",G37,",",H37,",",I37,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (27,'76609081','Mafe','Chinguel','36',3,2,5);</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N37" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (36,'76609081','Mafe','Chinguel','36',3,2,5);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
-        <f>A37+1</f>
-        <v>28</v>
+        <f t="shared" si="1"/>
+        <v>37</v>
       </c>
       <c r="B38" s="26">
         <v>73118588</v>
@@ -3421,19 +3304,15 @@
       <c r="I38" s="3">
         <v>7</v>
       </c>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A38,",","'",B38,"',","'",C38,"','",D38,"','",F38,"',",G38,",",H38,",",I38,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (28,'73118588','Gremy ','Rivera','40',4,2,7);</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N38" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (37,'73118588','Gremy ','Rivera','40',4,2,7);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
-        <f>A38+1</f>
-        <v>29</v>
+        <f t="shared" si="1"/>
+        <v>38</v>
       </c>
       <c r="B39" s="26">
         <v>77675965</v>
@@ -3457,19 +3336,15 @@
       <c r="I39" s="3">
         <v>2</v>
       </c>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A39,",","'",B39,"',","'",C39,"','",D39,"','",F39,"',",G39,",",H39,",",I39,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (29,'77675965','Fabricio ','Flores','38',4,1,2);</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N39" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (38,'77675965','Fabricio ','Flores','38',4,1,2);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
-        <f>A39+1</f>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>39</v>
       </c>
       <c r="B40" s="26">
         <v>74559538</v>
@@ -3493,19 +3368,15 @@
       <c r="I40" s="3">
         <v>2</v>
       </c>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A40,",","'",B40,"',","'",C40,"','",D40,"','",F40,"',",G40,",",H40,",",I40,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (30,'74559538','Milagros ','Pasapera','41',4,3,2);</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N40" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (39,'74559538','Milagros ','Pasapera','41',4,3,2);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
-        <f>A40+1</f>
-        <v>31</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="B41" s="26">
         <v>74465079</v>
@@ -3529,19 +3400,15 @@
       <c r="I41" s="3">
         <v>1</v>
       </c>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A41,",","'",B41,"',","'",C41,"','",D41,"','",F41,"',",G41,",",H41,",",I41,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (31,'74465079','Tomás','Seclén','39',4,2,1);</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N41" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (40,'74465079','Tomás','Seclén','39',4,2,1);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
-        <f>A41+1</f>
-        <v>32</v>
+        <f t="shared" si="1"/>
+        <v>41</v>
       </c>
       <c r="B42" s="26">
         <v>72557390</v>
@@ -3565,19 +3432,15 @@
       <c r="I42" s="3">
         <v>2</v>
       </c>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A42,",","'",B42,"',","'",C42,"','",D42,"','",F42,"',",G42,",",H42,",",I42,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (32,'72557390','Gabriel','Morante','43',4,1,2);</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N42" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (41,'72557390','Gabriel','Morante','43',4,1,2);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
-        <f>A42+1</f>
-        <v>33</v>
+        <f t="shared" si="1"/>
+        <v>42</v>
       </c>
       <c r="B43" s="26">
         <v>70890439</v>
@@ -3601,19 +3464,19 @@
       <c r="I43" s="17">
         <v>4</v>
       </c>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="28"/>
-      <c r="N43" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A43,",","'",B43,"',","'",C43,"','",D43,"','",F43,"',",G43,",",H43,",",I43,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (33,'70890439','Alex','Carrasco','44',4,2,4);</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (42,'70890439','Alex','Carrasco','44',4,2,4);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
-        <f>A43+1</f>
-        <v>34</v>
+        <f t="shared" si="1"/>
+        <v>43</v>
       </c>
       <c r="B44" s="26">
         <v>71830646</v>
@@ -3637,19 +3500,15 @@
       <c r="I44" s="3">
         <v>2</v>
       </c>
-      <c r="J44" s="28"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="28"/>
-      <c r="N44" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A44,",","'",B44,"',","'",C44,"','",D44,"','",F44,"',",G44,",",H44,",",I44,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (34,'71830646','Juan Carlos','García','46',4,3,2);</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N44" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (43,'71830646','Juan Carlos','García','46',4,3,2);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
-        <f>A44+1</f>
-        <v>35</v>
+        <f t="shared" si="1"/>
+        <v>44</v>
       </c>
       <c r="B45" s="26">
         <v>73351832</v>
@@ -3673,19 +3532,19 @@
       <c r="I45" s="17">
         <v>2</v>
       </c>
-      <c r="J45" s="28"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="28"/>
-      <c r="M45" s="28"/>
-      <c r="N45" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A45,",","'",B45,"',","'",C45,"','",D45,"','",F45,"',",G45,",",H45,",",I45,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (35,'73351832','Victor','Castro','48',4,3,2);</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (44,'73351832','Victor','Castro','48',4,3,2);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
-        <f>A45+1</f>
-        <v>36</v>
+        <f t="shared" si="1"/>
+        <v>45</v>
       </c>
       <c r="B46" s="26">
         <v>76791211</v>
@@ -3709,22 +3568,18 @@
       <c r="I46" s="3">
         <v>3</v>
       </c>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="28"/>
-      <c r="M46" s="28"/>
-      <c r="N46" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A46,",","'",B46,"',","'",C46,"','",D46,"','",F46,"',",G46,",",H46,",",I46,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (36,'76791211','Roxani','Neyra','45',4,2,3);</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N46" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (45,'76791211','Roxani','Neyra','45',4,2,3);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
-        <f>A46+1</f>
-        <v>37</v>
-      </c>
-      <c r="B47" s="25">
-        <v>12345678</v>
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="26">
+        <v>75081596</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>124</v>
@@ -3745,19 +3600,15 @@
       <c r="I47" s="3">
         <v>2</v>
       </c>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="28"/>
-      <c r="M47" s="28"/>
-      <c r="N47" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A47,",","'",B47,"',","'",C47,"','",D47,"','",F47,"',",G47,",",H47,",",I47,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (37,'12345678','Ronald','Córdova','42',4,3,2);</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N47" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (46,'75081596','Ronald','Córdova','42',4,3,2);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
-        <f>A47+1</f>
-        <v>38</v>
+        <f t="shared" si="1"/>
+        <v>47</v>
       </c>
       <c r="B48" s="26">
         <v>74246147</v>
@@ -3781,19 +3632,15 @@
       <c r="I48" s="3">
         <v>4</v>
       </c>
-      <c r="J48" s="28"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="28"/>
-      <c r="M48" s="28"/>
-      <c r="N48" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A48,",","'",B48,"',","'",C48,"','",D48,"','",F48,"',",G48,",",H48,",",I48,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (38,'74246147','Josué','Chávez','47',4,3,4);</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N48" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (47,'74246147','Josué','Chávez','47',4,3,4);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
-        <f>A48+1</f>
-        <v>39</v>
+        <f t="shared" si="1"/>
+        <v>48</v>
       </c>
       <c r="B49" s="26">
         <v>74979990</v>
@@ -3817,19 +3664,15 @@
       <c r="I49" s="3">
         <v>2</v>
       </c>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="28"/>
-      <c r="M49" s="28"/>
-      <c r="N49" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A49,",","'",B49,"',","'",C49,"','",D49,"','",F49,"',",G49,",",H49,",",I49,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (39,'74979990','Dayana ','Guzman','37',4,3,2);</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N49" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (48,'74979990','Dayana ','Guzman','37',4,3,2);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
-        <f>A49+1</f>
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>49</v>
       </c>
       <c r="B50" s="26">
         <v>76445250</v>
@@ -3853,19 +3696,15 @@
       <c r="I50" s="3">
         <v>2</v>
       </c>
-      <c r="J50" s="28"/>
-      <c r="K50" s="28"/>
-      <c r="L50" s="28"/>
-      <c r="M50" s="28"/>
-      <c r="N50" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A50,",","'",B50,"',","'",C50,"','",D50,"','",F50,"',",G50,",",H50,",",I50,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (40,'76445250','Sofía ','Meca Cruz','50',5,3,2);</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N50" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (49,'76445250','Sofía ','Meca Cruz','50',5,3,2);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
-        <f>A50+1</f>
-        <v>41</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
       <c r="B51" s="26">
         <v>71206802</v>
@@ -3889,19 +3728,19 @@
       <c r="I51" s="17">
         <v>1</v>
       </c>
-      <c r="J51" s="28"/>
-      <c r="K51" s="28"/>
-      <c r="L51" s="28"/>
-      <c r="M51" s="28"/>
-      <c r="N51" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A51,",","'",B51,"',","'",C51,"','",D51,"','",F51,"',",G51,",",H51,",",I51,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (41,'71206802','Juan ','Benites Lam','50',5,2,1);</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (50,'71206802','Juan ','Benites Lam','50',5,2,1);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
-        <f>A51+1</f>
-        <v>42</v>
+        <f t="shared" si="1"/>
+        <v>51</v>
       </c>
       <c r="B52" s="26">
         <v>72496481</v>
@@ -3925,22 +3764,18 @@
       <c r="I52" s="3">
         <v>5</v>
       </c>
-      <c r="J52" s="28"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="28"/>
-      <c r="M52" s="28"/>
-      <c r="N52" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A52,",","'",B52,"',","'",C52,"','",D52,"','",F52,"',",G52,",",H52,",",I52,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (42,'72496481','Yago ','Rentería ','51',5,2,5);</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N52" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (51,'72496481','Yago ','Rentería ','51',5,2,5);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
-        <f>A52+1</f>
-        <v>43</v>
-      </c>
-      <c r="B53" s="25">
-        <v>12345678</v>
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="26">
+        <v>72804895</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>136</v>
@@ -3961,19 +3796,15 @@
       <c r="I53" s="3">
         <v>2</v>
       </c>
-      <c r="J53" s="28"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="28"/>
-      <c r="M53" s="28"/>
-      <c r="N53" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A53,",","'",B53,"',","'",C53,"','",D53,"','",F53,"',",G53,",",H53,",",I53,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (43,'12345678','Camila','Gomez','52',5,3,2);</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N53" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (52,'72804895','Camila','Gomez','52',5,3,2);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
-        <f>A53+1</f>
-        <v>44</v>
+        <f t="shared" si="1"/>
+        <v>53</v>
       </c>
       <c r="B54" s="26">
         <v>73810434</v>
@@ -3997,19 +3828,19 @@
       <c r="I54" s="17">
         <v>6</v>
       </c>
-      <c r="J54" s="28"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="28"/>
-      <c r="M54" s="28"/>
-      <c r="N54" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A54,",","'",B54,"',","'",C54,"','",D54,"','",F54,"',",G54,",",H54,",",I54,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (44,'73810434','Alexis ','Alvarado','49',5,3,6);</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (53,'73810434','Alexis ','Alvarado','49',5,3,6);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
-        <f>A54+1</f>
-        <v>45</v>
+        <f t="shared" si="1"/>
+        <v>54</v>
       </c>
       <c r="B55" s="26">
         <v>74572336</v>
@@ -4033,19 +3864,15 @@
       <c r="I55" s="3">
         <v>2</v>
       </c>
-      <c r="J55" s="28"/>
-      <c r="K55" s="28"/>
-      <c r="L55" s="28"/>
-      <c r="M55" s="28"/>
-      <c r="N55" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A55,",","'",B55,"',","'",C55,"','",D55,"','",F55,"',",G55,",",H55,",",I55,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (45,'74572336','Daniel ','Cielo','54',5,3,2);</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N55" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (54,'74572336','Daniel ','Cielo','54',5,3,2);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
-        <f>A55+1</f>
-        <v>46</v>
+        <f t="shared" si="1"/>
+        <v>55</v>
       </c>
       <c r="B56" s="26">
         <v>74853174</v>
@@ -4069,19 +3896,15 @@
       <c r="I56" s="3">
         <v>2</v>
       </c>
-      <c r="J56" s="28"/>
-      <c r="K56" s="28"/>
-      <c r="L56" s="28"/>
-      <c r="M56" s="28"/>
-      <c r="N56" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A56,",","'",B56,"',","'",C56,"','",D56,"','",F56,"',",G56,",",H56,",",I56,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (46,'74853174','Ricardo ','Gambini','55',5,1,2);</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N56" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (55,'74853174','Ricardo ','Gambini','55',5,1,2);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
-        <f>A56+1</f>
-        <v>47</v>
+        <f t="shared" si="1"/>
+        <v>56</v>
       </c>
       <c r="B57" s="26">
         <v>72778311</v>
@@ -4105,19 +3928,15 @@
       <c r="I57" s="3">
         <v>2</v>
       </c>
-      <c r="J57" s="28"/>
-      <c r="K57" s="28"/>
-      <c r="L57" s="28"/>
-      <c r="M57" s="28"/>
-      <c r="N57" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A57,",","'",B57,"',","'",C57,"','",D57,"','",F57,"',",G57,",",H57,",",I57,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (47,'72778311','Alberto ','Sernaque','56',5,2,2);</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N57" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (56,'72778311','Alberto ','Sernaque','56',5,2,2);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
-        <f>A57+1</f>
-        <v>48</v>
+        <f t="shared" si="1"/>
+        <v>57</v>
       </c>
       <c r="B58" s="26">
         <v>72807022</v>
@@ -4141,19 +3960,15 @@
       <c r="I58" s="3">
         <v>2</v>
       </c>
-      <c r="J58" s="28"/>
-      <c r="K58" s="28"/>
-      <c r="L58" s="28"/>
-      <c r="M58" s="28"/>
-      <c r="N58" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A58,",","'",B58,"',","'",C58,"','",D58,"','",F58,"',",G58,",",H58,",",I58,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (48,'72807022','Humberto ','Silva','57',5,1,2);</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N58" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (57,'72807022','Humberto ','Silva','57',5,1,2);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <f>A58+1</f>
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B59" s="26">
         <v>73776966</v>
@@ -4177,22 +3992,18 @@
       <c r="I59" s="3">
         <v>4</v>
       </c>
-      <c r="J59" s="28"/>
-      <c r="K59" s="28"/>
-      <c r="L59" s="28"/>
-      <c r="M59" s="28"/>
-      <c r="N59" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A59,",","'",B59,"',","'",C59,"','",D59,"','",F59,"',",G59,",",H59,",",I59,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (49,'73776966','María Camila','Jaime','58',5,3,4);</v>
+      <c r="N59" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (58,'73776966','María Camila','Jaime','58',5,3,4);</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
-        <f>A59+1</f>
-        <v>50</v>
-      </c>
-      <c r="B60" s="25">
-        <v>12345678</v>
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="B60" s="26">
+        <v>70754570</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>149</v>
@@ -4213,19 +4024,15 @@
       <c r="I60" s="3">
         <v>4</v>
       </c>
-      <c r="J60" s="28"/>
-      <c r="K60" s="28"/>
-      <c r="L60" s="28"/>
-      <c r="M60" s="28"/>
-      <c r="N60" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A60,",","'",B60,"',","'",C60,"','",D60,"','",F60,"',",G60,",",H60,",",I60,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (50,'12345678','Valeria','Febre','51',5,3,4);</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N60" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (59,'70754570','Valeria','Febre','51',5,3,4);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
-        <f>A60+1</f>
-        <v>51</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="B61" s="26">
         <v>72114289</v>
@@ -4249,19 +4056,15 @@
       <c r="I61" s="3">
         <v>2</v>
       </c>
-      <c r="J61" s="28"/>
-      <c r="K61" s="28"/>
-      <c r="L61" s="28"/>
-      <c r="M61" s="28"/>
-      <c r="N61" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A61,",","'",B61,"',","'",C61,"','",D61,"','",F61,"',",G61,",",H61,",",I61,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (51,'72114289','María Alejandra ','Maza','60',5,3,2);</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N61" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (60,'72114289','María Alejandra ','Maza','60',5,3,2);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
-        <f>A61+1</f>
-        <v>52</v>
+        <f t="shared" si="1"/>
+        <v>61</v>
       </c>
       <c r="B62" s="25">
         <v>12345678</v>
@@ -4285,19 +4088,15 @@
       <c r="I62" s="3">
         <v>2</v>
       </c>
-      <c r="J62" s="28"/>
-      <c r="K62" s="28"/>
-      <c r="L62" s="28"/>
-      <c r="M62" s="28"/>
-      <c r="N62" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A62,",","'",B62,"',","'",C62,"','",D62,"','",F62,"',",G62,",",H62,",",I62,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (52,'12345678','Ana Flavia ','Diaz','61',6,3,2);</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N62" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (61,'12345678','Ana Flavia ','Diaz','61',6,3,2);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
-        <f>A62+1</f>
-        <v>53</v>
+        <f t="shared" si="1"/>
+        <v>62</v>
       </c>
       <c r="B63" s="26">
         <v>75465433</v>
@@ -4321,19 +4120,15 @@
       <c r="I63" s="3">
         <v>3</v>
       </c>
-      <c r="J63" s="28"/>
-      <c r="K63" s="28"/>
-      <c r="L63" s="28"/>
-      <c r="M63" s="28"/>
-      <c r="N63" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A63,",","'",B63,"',","'",C63,"','",D63,"','",F63,"',",G63,",",H63,",",I63,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (53,'75465433','Camila','Zevallos','62',6,2,3);</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N63" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (62,'75465433','Camila','Zevallos','62',6,2,3);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
-        <f>A63+1</f>
-        <v>54</v>
+        <f t="shared" si="1"/>
+        <v>63</v>
       </c>
       <c r="B64" s="26">
         <v>75475048</v>
@@ -4357,19 +4152,15 @@
       <c r="I64" s="3">
         <v>3</v>
       </c>
-      <c r="J64" s="28"/>
-      <c r="K64" s="28"/>
-      <c r="L64" s="28"/>
-      <c r="M64" s="28"/>
-      <c r="N64" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A64,",","'",B64,"',","'",C64,"','",D64,"','",F64,"',",G64,",",H64,",",I64,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (54,'75475048','Guiseppe','Cruz','63',6,2,3);</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N64" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (63,'75475048','Guiseppe','Cruz','63',6,2,3);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
-        <f>A64+1</f>
-        <v>55</v>
+        <f t="shared" si="1"/>
+        <v>64</v>
       </c>
       <c r="B65" s="26">
         <v>74687715</v>
@@ -4393,19 +4184,15 @@
       <c r="I65" s="3">
         <v>1</v>
       </c>
-      <c r="J65" s="28"/>
-      <c r="K65" s="28"/>
-      <c r="L65" s="28"/>
-      <c r="M65" s="28"/>
-      <c r="N65" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A65,",","'",B65,"',","'",C65,"','",D65,"','",F65,"',",G65,",",H65,",",I65,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (55,'74687715','Anghelo Michael ','Diaz','64',6,2,1);</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N65" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (64,'74687715','Anghelo Michael ','Diaz','64',6,2,1);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
-        <f>A65+1</f>
-        <v>56</v>
+        <f t="shared" si="1"/>
+        <v>65</v>
       </c>
       <c r="B66" s="26">
         <v>71908343</v>
@@ -4429,19 +4216,15 @@
       <c r="I66" s="3">
         <v>3</v>
       </c>
-      <c r="J66" s="28"/>
-      <c r="K66" s="28"/>
-      <c r="L66" s="28"/>
-      <c r="M66" s="28"/>
-      <c r="N66" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A66,",","'",B66,"',","'",C66,"','",D66,"','",F66,"',",G66,",",H66,",",I66,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (56,'71908343','Daniel ','Garcia','65',6,1,3);</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N66" t="str">
+        <f t="shared" ref="N66:N97" si="3">_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A66,",","'",B66,"',","'",C66,"','",D66,"','",F66,"',",G66,",",H66,",",I66,");")</f>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (65,'71908343','Daniel ','Garcia','65',6,1,3);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
-        <f>A66+1</f>
-        <v>57</v>
+        <f t="shared" si="1"/>
+        <v>66</v>
       </c>
       <c r="B67" s="26">
         <v>76585340</v>
@@ -4465,19 +4248,15 @@
       <c r="I67" s="3">
         <v>2</v>
       </c>
-      <c r="J67" s="28"/>
-      <c r="K67" s="28"/>
-      <c r="L67" s="28"/>
-      <c r="M67" s="28"/>
-      <c r="N67" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A67,",","'",B67,"',","'",C67,"','",D67,"','",F67,"',",G67,",",H67,",",I67,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (57,'76585340','Yeimis','Saavedra','66',6,2,2);</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N67" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (66,'76585340','Yeimis','Saavedra','66',6,2,2);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
-        <f>A67+1</f>
-        <v>58</v>
+        <f t="shared" si="1"/>
+        <v>67</v>
       </c>
       <c r="B68" s="26">
         <v>73179603</v>
@@ -4501,19 +4280,19 @@
       <c r="I68" s="17">
         <v>2</v>
       </c>
-      <c r="J68" s="28"/>
-      <c r="K68" s="28"/>
-      <c r="L68" s="28"/>
-      <c r="M68" s="28"/>
-      <c r="N68" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A68,",","'",B68,"',","'",C68,"','",D68,"','",F68,"',",G68,",",H68,",",I68,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (58,'73179603','Ivan ','Cardich','67',6,2,2);</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (67,'73179603','Ivan ','Cardich','67',6,2,2);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
-        <f>A68+1</f>
-        <v>59</v>
+        <f t="shared" ref="A69:A73" si="4">A68+1</f>
+        <v>68</v>
       </c>
       <c r="B69" s="26">
         <v>70513731</v>
@@ -4537,19 +4316,19 @@
       <c r="I69" s="17">
         <v>2</v>
       </c>
-      <c r="J69" s="28"/>
-      <c r="K69" s="28"/>
-      <c r="L69" s="28"/>
-      <c r="M69" s="28"/>
-      <c r="N69" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A69,",","'",B69,"',","'",C69,"','",D69,"','",F69,"',",G69,",",H69,",",I69,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (59,'70513731','Alex ','Arévalo','68',6,3,2);</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (68,'70513731','Alex ','Arévalo','68',6,3,2);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
-        <f>A69+1</f>
-        <v>60</v>
+        <f t="shared" si="4"/>
+        <v>69</v>
       </c>
       <c r="B70" s="26">
         <v>71761846</v>
@@ -4573,19 +4352,19 @@
       <c r="I70" s="17">
         <v>5</v>
       </c>
-      <c r="J70" s="28"/>
-      <c r="K70" s="28"/>
-      <c r="L70" s="28"/>
-      <c r="M70" s="28"/>
-      <c r="N70" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A70,",","'",B70,"',","'",C70,"','",D70,"','",F70,"',",G70,",",H70,",",I70,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (60,'71761846','Camila','Cama','69',6,2,5);</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (69,'71761846','Camila','Cama','69',6,2,5);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
-        <f>A70+1</f>
-        <v>61</v>
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
       <c r="B71" s="26">
         <v>76791208</v>
@@ -4609,19 +4388,15 @@
       <c r="I71" s="3">
         <v>2</v>
       </c>
-      <c r="J71" s="28"/>
-      <c r="K71" s="28"/>
-      <c r="L71" s="28"/>
-      <c r="M71" s="28"/>
-      <c r="N71" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A71,",","'",B71,"',","'",C71,"','",D71,"','",F71,"',",G71,",",H71,",",I71,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (61,'76791208','Samuel ','Neyra','70',6,3,2);</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N71" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (70,'76791208','Samuel ','Neyra','70',6,3,2);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
-        <f>A71+1</f>
-        <v>62</v>
+        <f t="shared" si="4"/>
+        <v>71</v>
       </c>
       <c r="B72" s="26">
         <v>74658362</v>
@@ -4645,19 +4420,15 @@
       <c r="I72" s="3">
         <v>2</v>
       </c>
-      <c r="J72" s="28"/>
-      <c r="K72" s="28"/>
-      <c r="L72" s="28"/>
-      <c r="M72" s="28"/>
-      <c r="N72" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A72,",","'",B72,"',","'",C72,"','",D72,"','",F72,"',",G72,",",H72,",",I72,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (62,'74658362','Peter ','Quispe','71',6,3,2);</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N72" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (71,'74658362','Peter ','Quispe','71',6,3,2);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
-        <f>A72+1</f>
-        <v>63</v>
+        <f t="shared" si="4"/>
+        <v>72</v>
       </c>
       <c r="B73" s="25">
         <v>12345678</v>
@@ -4681,22 +4452,13 @@
       <c r="I73" s="3">
         <v>1</v>
       </c>
-      <c r="J73" s="28"/>
-      <c r="K73" s="28"/>
-      <c r="L73" s="28"/>
-      <c r="M73" s="28"/>
-      <c r="N73" s="28" t="str">
-        <f>_xlfn.CONCAT($L$1," ",$K$1,"(",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$F$1,",",$G$1,",",$H$1,",",$I$1,") ",M$1," (",A73,",","'",B73,"',","'",C73,"','",D73,"','",F73,"',",G73,",",H73,",",I73,");")</f>
-        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (63,'12345678','Karen Juliana ','Diaz','72',6,3,1);</v>
+      <c r="N73" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT users(id_user,DNI,first_name,last_name,checkbooks,id_group,id_team,id_area) VALUES (72,'12345678','Karen Juliana ','Diaz','72',6,3,1);</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I73" xr:uid="{AEB5630B-C7CC-4DEA-B963-ECE069069588}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Febre"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I73">
       <sortCondition ref="F1:F73"/>
     </sortState>
@@ -62030,7 +61792,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:3" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="23" t="s">
         <v>50</v>
       </c>
@@ -62347,7 +62109,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="52" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:3" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B52" s="23" t="s">
         <v>303</v>
       </c>
@@ -62371,7 +62133,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="55" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:3" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B55" s="22" t="s">
         <v>42</v>
       </c>
@@ -62387,7 +62149,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="57" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:3" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B57" s="22" t="s">
         <v>68</v>
       </c>
